--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference|4.2.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -562,7 +562,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -782,7 +782,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS|20250623120000</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -832,7 +832,7 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS|20230922120000</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -858,7 +858,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0|Device|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
 </t>
   </si>
   <si>
@@ -954,7 +954,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,9 +1145,6 @@
   </si>
   <si>
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1434,7 +1431,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS|20240726120000</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1483,7 +1480,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1520,7 +1517,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1574,7 +1571,7 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS|20250523120000</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1611,7 +1608,7 @@
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS|20240927120000</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
@@ -1632,7 +1629,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2010,7 +2007,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="117.46484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6524,7 +6521,7 @@
         <v>153</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6554,36 +6551,36 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AO37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6609,10 +6606,10 @@
         <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6663,7 +6660,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -6681,10 +6678,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6701,10 +6698,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6822,10 +6819,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6945,10 +6942,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7070,10 +7067,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7096,13 +7093,13 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7153,7 +7150,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>94</v>
@@ -7171,30 +7168,30 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP42" t="s" s="2">
+      <c r="AQ42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7312,10 +7309,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7435,10 +7432,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7464,14 +7461,14 @@
         <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7484,7 +7481,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7499,28 +7496,28 @@
         <v>225</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7541,16 +7538,16 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7558,10 +7555,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7587,14 +7584,14 @@
         <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7607,7 +7604,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7643,7 +7640,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7664,7 +7661,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7681,10 +7678,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7707,19 +7704,19 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7768,7 +7765,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7789,16 +7786,16 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -7806,10 +7803,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7832,19 +7829,19 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7857,43 +7854,43 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -7914,16 +7911,16 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -7931,10 +7928,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7957,19 +7954,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8018,7 +8015,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8039,7 +8036,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8056,10 +8053,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8082,19 +8079,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8143,7 +8140,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8164,7 +8161,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8181,10 +8178,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8210,14 +8207,14 @@
         <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8230,43 +8227,43 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8287,7 +8284,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8304,10 +8301,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8330,17 +8327,17 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8389,7 +8386,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8410,7 +8407,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8427,10 +8424,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8456,13 +8453,13 @@
         <v>148</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8492,7 +8489,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8510,7 +8507,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8522,36 +8519,36 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8577,13 +8574,13 @@
         <v>317</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8633,7 +8630,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8654,7 +8651,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8671,10 +8668,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8792,10 +8789,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8915,10 +8912,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9040,10 +9037,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9066,13 +9063,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9123,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9138,19 +9135,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>81</v>
@@ -9161,10 +9158,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9190,13 +9187,13 @@
         <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9225,11 +9222,11 @@
         <v>160</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9246,7 +9243,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9258,36 +9255,36 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9310,13 +9307,13 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9367,7 +9364,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9385,30 +9382,30 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9434,10 +9431,10 @@
         <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9468,7 +9465,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9486,7 +9483,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9498,36 +9495,36 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9553,16 +9550,16 @@
         <v>243</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9591,7 +9588,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9609,7 +9606,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9621,19 +9618,19 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9642,15 +9639,15 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9676,10 +9673,10 @@
         <v>268</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9730,7 +9727,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -9763,15 +9760,15 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9794,16 +9791,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9853,7 +9850,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -9871,22 +9868,22 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference|4.2.0</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -562,7 +562,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -782,7 +782,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS|20250623120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -832,7 +832,7 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS|20230922120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -858,7 +858,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.0.0|Device|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -954,7 +954,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.0.0|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.0.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1145,6 +1145,9 @@
   </si>
   <si>
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1431,7 +1434,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS|20240726120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1480,7 +1483,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1517,7 +1520,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1571,7 +1574,7 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS|20250523120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1608,7 +1611,7 @@
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS|20240927120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
@@ -1629,7 +1632,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -2007,7 +2010,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="117.46484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6521,7 +6524,7 @@
         <v>153</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6551,36 +6554,36 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6606,10 +6609,10 @@
         <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6660,7 +6663,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -6678,10 +6681,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6698,10 +6701,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6819,10 +6822,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6942,10 +6945,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7067,10 +7070,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7093,13 +7096,13 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7150,7 +7153,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>94</v>
@@ -7168,30 +7171,30 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7309,10 +7312,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7432,10 +7435,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7461,14 +7464,14 @@
         <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7481,7 +7484,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7496,10 +7499,10 @@
         <v>225</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7517,7 +7520,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7538,7 +7541,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7547,7 +7550,7 @@
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7555,10 +7558,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7584,14 +7587,14 @@
         <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7604,7 +7607,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7640,7 +7643,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7661,7 +7664,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7678,10 +7681,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7704,19 +7707,19 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7765,7 +7768,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7786,7 +7789,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7795,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -7803,10 +7806,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7829,19 +7832,19 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7854,7 +7857,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -7890,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -7911,7 +7914,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7920,7 +7923,7 @@
         <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -7928,10 +7931,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7954,19 +7957,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8015,7 +8018,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8036,7 +8039,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8053,10 +8056,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8079,19 +8082,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8140,7 +8143,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8161,7 +8164,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8178,10 +8181,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8207,14 +8210,14 @@
         <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8227,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8263,7 +8266,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8284,7 +8287,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8301,10 +8304,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8327,17 +8330,17 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8386,7 +8389,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8407,7 +8410,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8424,10 +8427,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8453,13 +8456,13 @@
         <v>148</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8489,7 +8492,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8507,7 +8510,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8519,19 +8522,19 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8540,15 +8543,15 @@
         <v>81</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8574,13 +8577,13 @@
         <v>317</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8630,7 +8633,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8651,7 +8654,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8668,10 +8671,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8789,10 +8792,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8912,10 +8915,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9037,10 +9040,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9063,13 +9066,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9120,7 +9123,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9135,19 +9138,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>81</v>
@@ -9158,10 +9161,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9187,13 +9190,13 @@
         <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9222,10 +9225,10 @@
         <v>160</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9243,7 +9246,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9255,16 +9258,16 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9276,15 +9279,15 @@
         <v>81</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9307,13 +9310,13 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9364,7 +9367,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9382,13 +9385,13 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9397,15 +9400,15 @@
         <v>81</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9431,10 +9434,10 @@
         <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9465,7 +9468,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9483,7 +9486,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9495,19 +9498,19 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9516,15 +9519,15 @@
         <v>81</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9550,16 +9553,16 @@
         <v>243</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9588,7 +9591,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9606,7 +9609,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9618,20 +9621,20 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9639,15 +9642,15 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9673,10 +9676,10 @@
         <v>268</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9727,7 +9730,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -9760,15 +9763,15 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9791,16 +9794,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9850,7 +9853,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -9868,13 +9871,13 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9883,7 +9886,7 @@
         <v>81</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
